--- a/runs/run973/NotionalETEOutput973.xlsx
+++ b/runs/run973/NotionalETEOutput973.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT1_State_Update</t>
+    <t>Missile_SOMERSAULT0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1_14.MISSILE_SOMERSAULT1_14</t>
+    <t>MISSILE_SOMERSAULT0_454.MISSILE_SOMERSAULT0_454</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1</t>
+    <t>MISSILE_SOMERSAULT0</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>246.5005438467178</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-137.3394740940083</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>924.4523774557794</v>
       </c>
       <c r="I2">
-        <v>-1596.559303934125</v>
+        <v>-978.8474684683804</v>
       </c>
       <c r="J2">
-        <v>1643.337087698027</v>
+        <v>2248.326817076551</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>246.5005438467178</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-137.3394740940083</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>924.4523774557794</v>
       </c>
       <c r="I3">
-        <v>-1565.038972056428</v>
+        <v>-959.522413027133</v>
       </c>
       <c r="J3">
-        <v>1603.361608036791</v>
+        <v>2193.634481815162</v>
       </c>
       <c r="K3">
-        <v>307.9477063454074</v>
+        <v>395.1997260881498</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>246.5005438467178</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-137.3394740940083</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>924.4523774557794</v>
       </c>
       <c r="I4">
-        <v>-1532.742481004417</v>
+        <v>-939.72149587437</v>
       </c>
       <c r="J4">
-        <v>1563.386128375555</v>
+        <v>2138.942146553773</v>
       </c>
       <c r="K4">
-        <v>600.5397284708225</v>
+        <v>770.6929823030339</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>246.5005438467178</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-137.3394740940083</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>924.4523774557794</v>
       </c>
       <c r="I5">
-        <v>-1499.650718572477</v>
+        <v>-919.4329993532299</v>
       </c>
       <c r="J5">
-        <v>1523.41064871432</v>
+        <v>2084.249811292384</v>
       </c>
       <c r="K5">
-        <v>877.7760663762474</v>
+        <v>1126.479768644655</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>246.5005438467178</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-137.3394740940083</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>924.4523774557794</v>
       </c>
       <c r="I6">
-        <v>-1465.744101934515</v>
+        <v>-898.6449172703315</v>
       </c>
       <c r="J6">
-        <v>1483.435169053084</v>
+        <v>2029.557476030996</v>
       </c>
       <c r="K6">
-        <v>1139.65672006168</v>
+        <v>1462.56008511301</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>246.5005438467178</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-137.3394740940083</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>924.4523774557794</v>
       </c>
       <c r="I7">
-        <v>-1431.002566055357</v>
+        <v>-877.344947790826</v>
       </c>
       <c r="J7">
-        <v>1443.459689391848</v>
+        <v>1974.865140769607</v>
       </c>
       <c r="K7">
-        <v>1386.181689527124</v>
+        <v>1778.933931708103</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>246.5005438467178</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-137.3394740940083</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>924.4523774557794</v>
       </c>
       <c r="I8">
-        <v>-1395.405551816802</v>
+        <v>-855.5204861585006</v>
       </c>
       <c r="J8">
-        <v>1403.484209730612</v>
+        <v>1920.172805508218</v>
       </c>
       <c r="K8">
-        <v>1617.350974772575</v>
+        <v>2075.601308429931</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>246.5005438467178</v>
       </c>
       <c r="G9">
-        <v>-113.853380998128</v>
+        <v>-137.3394740940083</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>924.4523774557794</v>
       </c>
       <c r="I9">
-        <v>-1358.931993851275</v>
+        <v>-833.1586172366158</v>
       </c>
       <c r="J9">
-        <v>1363.508730069376</v>
+        <v>1865.480470246829</v>
       </c>
       <c r="K9">
-        <v>1833.164575798036</v>
+        <v>2352.562215278495</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>265.2911391603038</v>
+        <v>246.5005438467178</v>
       </c>
       <c r="G10">
-        <v>-95.05298303350162</v>
+        <v>-114.6608610692242</v>
       </c>
       <c r="H10">
-        <v>679.2552969096189</v>
+        <v>924.4523774557794</v>
       </c>
       <c r="I10">
-        <v>-1321.560308075905</v>
+        <v>-810.2461078650717</v>
       </c>
       <c r="J10">
-        <v>1323.53325040814</v>
+        <v>1810.78813498544</v>
       </c>
       <c r="K10">
-        <v>2033.622492603504</v>
+        <v>2609.816652253793</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>205.8968719132027</v>
+        <v>191.3131779055546</v>
       </c>
       <c r="G11">
-        <v>-76.25258506887519</v>
+        <v>-91.98224804444004</v>
       </c>
       <c r="H11">
-        <v>836.8379550458443</v>
+        <v>1138.919108333873</v>
       </c>
       <c r="I11">
-        <v>-1283.268378919637</v>
+        <v>-786.7693990293754</v>
       </c>
       <c r="J11">
-        <v>1283.557770746904</v>
+        <v>1756.095799724052</v>
       </c>
       <c r="K11">
-        <v>2218.724725188982</v>
+        <v>2847.364619355827</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>171.0057194436115</v>
+        <v>158.8933689122511</v>
       </c>
       <c r="G12">
-        <v>-57.45218710424878</v>
+        <v>-69.30363501965591</v>
       </c>
       <c r="H12">
-        <v>930.7022453148736</v>
+        <v>1266.666461489883</v>
       </c>
       <c r="I12">
-        <v>-1244.033546235825</v>
+        <v>-762.7145978367763</v>
       </c>
       <c r="J12">
-        <v>1243.582291085668</v>
+        <v>1701.403464462662</v>
       </c>
       <c r="K12">
-        <v>2388.471273554469</v>
+        <v>3065.206116584598</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>148.9798642603496</v>
+        <v>138.4276070381525</v>
       </c>
       <c r="G13">
-        <v>-38.65178913962234</v>
+        <v>-46.62502199487177</v>
       </c>
       <c r="H13">
-        <v>997.7807095252978</v>
+        <v>1357.958860676959</v>
       </c>
       <c r="I13">
-        <v>-1203.832591892558</v>
+        <v>-738.0674692948203</v>
       </c>
       <c r="J13">
-        <v>1203.606811424432</v>
+        <v>1646.711129201273</v>
       </c>
       <c r="K13">
-        <v>2542.862137699965</v>
+        <v>3263.341143940105</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>133.6191222637379</v>
+        <v>124.1548677825608</v>
       </c>
       <c r="G14">
-        <v>-19.85139117499591</v>
+        <v>-23.94640897008762</v>
       </c>
       <c r="H14">
-        <v>1050.014673668642</v>
+        <v>1429.048203013997</v>
       </c>
       <c r="I14">
-        <v>-1162.641726032788</v>
+        <v>-712.8134278874614</v>
       </c>
       <c r="J14">
-        <v>1163.631331763196</v>
+        <v>1592.018793939885</v>
       </c>
       <c r="K14">
-        <v>2681.89731762547</v>
+        <v>3441.769701422347</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>122.1595487325276</v>
+        <v>113.5069768781161</v>
       </c>
       <c r="G15">
-        <v>-1.050993210369501</v>
+        <v>-1.267795945303495</v>
       </c>
       <c r="H15">
-        <v>1092.798341937612</v>
+        <v>1487.27588858005</v>
       </c>
       <c r="I15">
-        <v>-1120.436572996123</v>
+        <v>-686.9375289437385</v>
       </c>
       <c r="J15">
-        <v>1123.655852101961</v>
+        <v>1537.326458678496</v>
       </c>
       <c r="K15">
-        <v>2805.576813330983</v>
+        <v>3600.491789031324</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>113.1997625131215</v>
+        <v>105.1818131247222</v>
       </c>
       <c r="G16">
-        <v>17.74940475425693</v>
+        <v>21.41081707948065</v>
       </c>
       <c r="H16">
-        <v>1129.032985905014</v>
+        <v>1536.590487839459</v>
       </c>
       <c r="I16">
-        <v>-1077.192156893959</v>
+        <v>-660.4244597939169</v>
       </c>
       <c r="J16">
-        <v>1083.680372440725</v>
+        <v>1482.634123417107</v>
       </c>
       <c r="K16">
-        <v>2913.900624816506</v>
+        <v>3739.507406767038</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>105.9506430781957</v>
+        <v>98.44614947317723</v>
       </c>
       <c r="G17">
-        <v>36.54980271888336</v>
+        <v>44.0894301042648</v>
       </c>
       <c r="H17">
-        <v>1160.459940234577</v>
+        <v>1579.361921169959</v>
       </c>
       <c r="I17">
-        <v>-1032.882886829412</v>
+        <v>-633.2585307078571</v>
       </c>
       <c r="J17">
-        <v>1043.704892779489</v>
+        <v>1427.941788155718</v>
       </c>
       <c r="K17">
-        <v>3006.868752082037</v>
+        <v>3858.816554629486</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>99.93129094124971</v>
+        <v>92.85314859098226</v>
       </c>
       <c r="G18">
-        <v>55.35020068350978</v>
+        <v>66.76804312904892</v>
       </c>
       <c r="H18">
-        <v>1188.206831094219</v>
+        <v>1617.124864409273</v>
       </c>
       <c r="I18">
-        <v>-987.4825417533074</v>
+        <v>-605.4236656102498</v>
       </c>
       <c r="J18">
-        <v>1003.729413118253</v>
+        <v>1373.249452894329</v>
       </c>
       <c r="K18">
-        <v>3084.481195127578</v>
+        <v>3958.419232618672</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>94.83034290516316</v>
+        <v>88.11350116435109</v>
       </c>
       <c r="G19">
-        <v>74.15059864813622</v>
+        <v>89.44665615383309</v>
       </c>
       <c r="H19">
-        <v>1213.045881889335</v>
+        <v>1650.930297603187</v>
       </c>
       <c r="I19">
-        <v>-940.9642549472546</v>
+        <v>-576.9033925672201</v>
       </c>
       <c r="J19">
-        <v>963.7539334570168</v>
+        <v>1318.55711763294</v>
       </c>
       <c r="K19">
-        <v>3146.737953953127</v>
+        <v>4038.315440734592</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>90.43637382243344</v>
+        <v>84.0307573080474</v>
       </c>
       <c r="G20">
-        <v>92.95099661276264</v>
+        <v>112.1252691786172</v>
       </c>
       <c r="H20">
-        <v>1235.529167859519</v>
+        <v>1681.529583707717</v>
       </c>
       <c r="I20">
-        <v>-893.300498124642</v>
+        <v>-547.6808340386757</v>
       </c>
       <c r="J20">
-        <v>923.778453795781</v>
+        <v>1263.864782371551</v>
       </c>
       <c r="K20">
-        <v>3193.639028558685</v>
+        <v>4098.505178977249</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>86.60021176920704</v>
+        <v>80.46631095903814</v>
       </c>
       <c r="G21">
-        <v>111.751394577389</v>
+        <v>134.8038822034013</v>
       </c>
       <c r="H21">
-        <v>1256.065082403372</v>
+        <v>1709.478537671957</v>
       </c>
       <c r="I21">
-        <v>-844.463065140125</v>
+        <v>-517.7386968906271</v>
       </c>
       <c r="J21">
-        <v>883.802974134545</v>
+        <v>1209.172447110162</v>
       </c>
       <c r="K21">
-        <v>3225.184418944252</v>
+        <v>4138.98844734664</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>83.21324324956286</v>
+        <v>77.3192417251143</v>
       </c>
       <c r="G22">
-        <v>130.5517925420155</v>
+        <v>157.4824952281855</v>
       </c>
       <c r="H22">
-        <v>1274.964240182895</v>
+        <v>1735.199899611541</v>
       </c>
       <c r="I22">
-        <v>-794.4230552979784</v>
+        <v>-487.0592621615686</v>
       </c>
       <c r="J22">
-        <v>843.8274944733093</v>
+        <v>1154.480111848774</v>
       </c>
       <c r="K22">
-        <v>3241.374125109828</v>
+        <v>4159.765245842768</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>80.19427927885228</v>
+        <v>74.51411124473239</v>
       </c>
       <c r="G23">
-        <v>149.3521905066419</v>
+        <v>180.1611082529696</v>
       </c>
       <c r="H23">
-        <v>1292.468397148175</v>
+        <v>1759.022694362696</v>
       </c>
       <c r="I23">
-        <v>-743.1508562494339</v>
+        <v>-455.6243745768695</v>
       </c>
       <c r="J23">
-        <v>803.8520148120733</v>
+        <v>1099.787776587385</v>
       </c>
       <c r="K23">
-        <v>3242.208147055413</v>
+        <v>4160.835574465631</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>77.48126336920996</v>
+        <v>71.99325849665954</v>
       </c>
       <c r="G24">
-        <v>168.1525884712684</v>
+        <v>202.8397212777538</v>
       </c>
       <c r="H24">
-        <v>1308.769410739795</v>
+        <v>1781.208035924659</v>
       </c>
       <c r="I24">
-        <v>-690.6161264688774</v>
+        <v>-423.4154318049636</v>
       </c>
       <c r="J24">
-        <v>763.8765351508373</v>
+        <v>1045.095441325996</v>
       </c>
       <c r="K24">
-        <v>3227.686484781006</v>
+        <v>4142.199433215231</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>75.02584714019108</v>
+        <v>69.7117596205984</v>
       </c>
       <c r="G25">
-        <v>186.9529864358948</v>
+        <v>225.5183343025379</v>
       </c>
       <c r="H25">
-        <v>1324.022092440633</v>
+        <v>1801.96661951623</v>
       </c>
       <c r="I25">
-        <v>-636.7877772985394</v>
+        <v>-390.4133734489832</v>
       </c>
       <c r="J25">
-        <v>723.9010554896015</v>
+        <v>990.4031060646071</v>
       </c>
       <c r="K25">
-        <v>3197.809138286609</v>
+        <v>4103.856822091565</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>72.78973218468656</v>
+        <v>67.63402888906961</v>
       </c>
       <c r="G26">
-        <v>205.7533844005212</v>
+        <v>248.1969473273221</v>
       </c>
       <c r="H26">
-        <v>1338.353171395321</v>
+        <v>1821.470920876033</v>
       </c>
       <c r="I26">
-        <v>-581.6339545510552</v>
+        <v>-356.5986697673239</v>
       </c>
       <c r="J26">
-        <v>683.9255758283656</v>
+        <v>935.7107708032181</v>
       </c>
       <c r="K26">
-        <v>3152.57610757222</v>
+        <v>4045.807741094636</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>70.74213716290281</v>
+        <v>65.73146520735337</v>
       </c>
       <c r="G27">
-        <v>224.5537823651476</v>
+        <v>270.8755603521062</v>
       </c>
       <c r="H27">
-        <v>1351.867700937225</v>
+        <v>1839.86391541292</v>
       </c>
       <c r="I27">
-        <v>-525.122019659001</v>
+        <v>-321.9513101164608</v>
       </c>
       <c r="J27">
-        <v>643.9500961671296</v>
+        <v>881.018435541829</v>
       </c>
       <c r="K27">
-        <v>3091.98739263784</v>
+        <v>3968.052190224442</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>68.85800309724942</v>
+        <v>63.98078452750207</v>
       </c>
       <c r="G28">
-        <v>243.354180329774</v>
+        <v>293.5541733768903</v>
       </c>
       <c r="H28">
-        <v>1364.653736341987</v>
+        <v>1857.265444531563</v>
       </c>
       <c r="I28">
-        <v>-467.2185303602569</v>
+        <v>-286.4507911091818</v>
       </c>
       <c r="J28">
-        <v>603.9746165058938</v>
+        <v>826.3261002804403</v>
       </c>
       <c r="K28">
-        <v>3016.04299348347</v>
+        <v>3870.590169480984</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>67.11669559770571</v>
+        <v>62.36281399520123</v>
       </c>
       <c r="G29">
-        <v>262.1545782944005</v>
+        <v>316.2327864016745</v>
       </c>
       <c r="H29">
-        <v>1376.785815060125</v>
+        <v>1873.776952156884</v>
       </c>
       <c r="I29">
-        <v>-407.8892209077639</v>
+        <v>-250.0761044812267</v>
       </c>
       <c r="J29">
-        <v>563.9991368446579</v>
+        <v>771.6337650190513</v>
       </c>
       <c r="K29">
-        <v>2924.742910109108</v>
+        <v>3753.421678864262</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>65.50104931339371</v>
+        <v>60.86160408292373</v>
       </c>
       <c r="G30">
-        <v>280.9549762590269</v>
+        <v>338.9113994264586</v>
       </c>
       <c r="H30">
-        <v>1388.327589462336</v>
+        <v>1889.485067845826</v>
       </c>
       <c r="I30">
-        <v>-347.0989817919673</v>
+        <v>-212.8057246591564</v>
       </c>
       <c r="J30">
-        <v>524.0236571834218</v>
+        <v>716.9414297576624</v>
       </c>
       <c r="K30">
-        <v>2818.087142514755</v>
+        <v>3616.546718374274</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>63.99665290238465</v>
+        <v>59.46376420538939</v>
       </c>
       <c r="G31">
-        <v>299.7553742236533</v>
+        <v>361.5900124512428</v>
       </c>
       <c r="H31">
-        <v>1399.333848289093</v>
+        <v>1904.464357938345</v>
       </c>
       <c r="I31">
-        <v>-284.811838963939</v>
+        <v>-174.6175960220884</v>
       </c>
       <c r="J31">
-        <v>484.0481775221861</v>
+        <v>662.2490944962736</v>
       </c>
       <c r="K31">
-        <v>2696.075690700411</v>
+        <v>3459.965288011024</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>62.5913061439196</v>
+        <v>58.15795828457598</v>
       </c>
       <c r="G32">
-        <v>318.5557721882798</v>
+        <v>384.2686254760269</v>
       </c>
       <c r="H32">
-        <v>1409.852089596329</v>
+        <v>1918.779466303884</v>
       </c>
       <c r="I32">
-        <v>-220.9909325468911</v>
+        <v>-135.4891198497668</v>
       </c>
       <c r="J32">
-        <v>444.0726978609501</v>
+        <v>607.5567592348847</v>
       </c>
       <c r="K32">
-        <v>2558.708554666076</v>
+        <v>3283.677387774508</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>61.27460229423465</v>
+        <v>56.934516687319</v>
       </c>
       <c r="G33">
-        <v>337.3561701529061</v>
+        <v>406.947238500811</v>
       </c>
       <c r="H33">
-        <v>1419.923759553373</v>
+        <v>1932.48680031968</v>
       </c>
       <c r="I33">
-        <v>-155.5984950234803</v>
+        <v>-95.39714094923961</v>
       </c>
       <c r="J33">
-        <v>404.0972181997143</v>
+        <v>552.8644239734959</v>
       </c>
       <c r="K33">
-        <v>2405.98573441175</v>
+        <v>3087.68301766473</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>60.03760292987408</v>
+        <v>55.78513409950224</v>
       </c>
       <c r="G34">
-        <v>356.1565681175326</v>
+        <v>429.6258515255952</v>
       </c>
       <c r="H34">
-        <v>1429.585238814162</v>
+        <v>1945.635873301536</v>
       </c>
       <c r="I34">
-        <v>-88.59582888599485</v>
+        <v>-54.31793395223112</v>
       </c>
       <c r="J34">
-        <v>364.1217385384783</v>
+        <v>498.172088712107</v>
       </c>
       <c r="K34">
-        <v>2237.907229937432</v>
+        <v>2871.982177681685</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>58.87258202063843</v>
+        <v>54.7026317263421</v>
       </c>
       <c r="G35">
-        <v>374.9569660821591</v>
+        <v>452.3044645503794</v>
       </c>
       <c r="H35">
-        <v>1438.868635775954</v>
+        <v>1958.270384112477</v>
       </c>
       <c r="I35">
-        <v>-19.9432837361967</v>
+        <v>-12.22718927509894</v>
       </c>
       <c r="J35">
-        <v>324.1462588772424</v>
+        <v>443.479753450718</v>
       </c>
       <c r="K35">
-        <v>2054.473041243124</v>
+        <v>2636.574867825377</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>57.77282246863001</v>
+        <v>53.68076824259082</v>
       </c>
       <c r="G36">
-        <v>393.7573640467855</v>
+        <v>474.9830775751635</v>
       </c>
       <c r="H36">
-        <v>1447.80243039038</v>
+        <v>1970.42909337626</v>
       </c>
       <c r="I36">
-        <v>50.39976717873201</v>
+        <v>30.90000126693267</v>
       </c>
       <c r="J36">
-        <v>284.1707792160066</v>
+        <v>388.7874181893293</v>
       </c>
       <c r="K36">
-        <v>1855.683168328824</v>
+        <v>2381.461088095805</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>56.73245286355505</v>
+        <v>52.71408811047524</v>
       </c>
       <c r="G37">
-        <v>412.5577620114119</v>
+        <v>497.6616905999476</v>
       </c>
       <c r="H37">
-        <v>1456.412001090204</v>
+        <v>1982.146540613753</v>
       </c>
       <c r="I37">
-        <v>122.4749510080205</v>
+        <v>75.08915919977397</v>
       </c>
       <c r="J37">
-        <v>244.1952995547706</v>
+        <v>334.0950829279403</v>
       </c>
       <c r="K37">
-        <v>1641.537611194534</v>
+        <v>2106.640838492968</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>55.74631538896396</v>
+        <v>51.79779884215012</v>
       </c>
       <c r="G38">
-        <v>431.3581599760383</v>
+        <v>520.3403036247317</v>
       </c>
       <c r="H38">
-        <v>1464.720059406545</v>
+        <v>1993.453635747976</v>
       </c>
       <c r="I38">
-        <v>196.3249199311526</v>
+        <v>120.366434493432</v>
       </c>
       <c r="J38">
-        <v>204.2198198935348</v>
+        <v>279.4027476665515</v>
       </c>
       <c r="K38">
-        <v>1412.036369840253</v>
+        <v>1812.114119016868</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>54.80985809214519</v>
+        <v>50.927670900125</v>
       </c>
       <c r="G39">
-        <v>450.1585579406648</v>
+        <v>543.018916649516</v>
       </c>
       <c r="H39">
-        <v>1472.747011026937</v>
+        <v>2004.378150496636</v>
       </c>
       <c r="I39">
-        <v>271.9933763982905</v>
+        <v>166.7586210368665</v>
       </c>
       <c r="J39">
-        <v>164.2443402322988</v>
+        <v>224.7104124051626</v>
       </c>
       <c r="K39">
-        <v>1167.179444265979</v>
+        <v>1497.880929667502</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>53.91904638087529</v>
+        <v>50.09995546270751</v>
       </c>
       <c r="G40">
-        <v>468.9589559052911</v>
+        <v>565.6975296743</v>
       </c>
       <c r="H40">
-        <v>1480.511257746265</v>
+        <v>2014.94512932108</v>
       </c>
       <c r="I40">
-        <v>349.5250989922288</v>
+        <v>214.2931724939044</v>
       </c>
       <c r="J40">
-        <v>124.2688605710628</v>
+        <v>170.0180771437736</v>
       </c>
       <c r="K40">
-        <v>906.9668344717146</v>
+        <v>1163.941270444872</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>53.07028982026217</v>
+        <v>49.31131640583278</v>
       </c>
       <c r="G41">
-        <v>487.7593538699176</v>
+        <v>588.3761426990842</v>
       </c>
       <c r="H41">
-        <v>1488.029451554763</v>
+        <v>2025.177235234807</v>
       </c>
       <c r="I41">
-        <v>428.9659689271648</v>
+        <v>262.9982185495856</v>
       </c>
       <c r="J41">
-        <v>84.29338090982704</v>
+        <v>115.3257418823849</v>
       </c>
       <c r="K41">
-        <v>631.3985404574601</v>
+        <v>810.295141348979</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>52.2603811998416</v>
+        <v>48.55877368604303</v>
       </c>
       <c r="G42">
-        <v>506.559751834544</v>
+        <v>611.0547557238683</v>
       </c>
       <c r="H42">
-        <v>1495.316709688268</v>
+        <v>2035.095042482395</v>
       </c>
       <c r="I42">
-        <v>510.36299719999</v>
+        <v>312.9025815565683</v>
       </c>
       <c r="J42">
-        <v>44.31790124859106</v>
+        <v>60.63340662099588</v>
       </c>
       <c r="K42">
-        <v>340.4745622232134</v>
+        <v>436.9425423798203</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>51.48644551273784</v>
+        <v>47.83965593345884</v>
       </c>
       <c r="G43">
-        <v>525.3601497991705</v>
+        <v>633.7333687486525</v>
       </c>
       <c r="H43">
-        <v>1502.386797623912</v>
+        <v>2044.717285592848</v>
       </c>
       <c r="I43">
-        <v>593.7643524101401</v>
+        <v>364.0357935914254</v>
       </c>
       <c r="J43">
-        <v>4.342421587355079</v>
+        <v>5.941071359606892</v>
       </c>
       <c r="K43">
-        <v>34.19489976897584</v>
+        <v>43.88347353739766</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>50.7458969965001</v>
+        <v>47.15156053541699</v>
       </c>
       <c r="G44">
-        <v>544.1605477637969</v>
+        <v>656.4119817734365</v>
       </c>
       <c r="H44">
-        <v>1509.252285589199</v>
+        <v>2054.061072385206</v>
       </c>
       <c r="I44">
-        <v>679.2193892644995</v>
+        <v>416.428113930948</v>
       </c>
       <c r="J44">
-        <v>-35.63305807388071</v>
+        <v>-48.75126390178183</v>
       </c>
       <c r="K44">
-        <v>-287.4404469052519</v>
+        <v>-368.8820651782881</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>50.03640277258414</v>
+        <v>46.49231985137097</v>
       </c>
       <c r="G45">
-        <v>562.9609457284232</v>
+        <v>679.0905947982206</v>
       </c>
       <c r="H45">
-        <v>1515.924683055696</v>
+        <v>2063.142067011671</v>
       </c>
       <c r="I45">
-        <v>766.7786777842055</v>
+        <v>470.1105469587807</v>
       </c>
       <c r="J45">
-        <v>-75.60853773511668</v>
+        <v>-103.4435991631708</v>
       </c>
       <c r="K45">
-        <v>-624.4314777994716</v>
+        <v>-801.3540737672394</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>49.35585191941776</v>
+        <v>45.85997247651389</v>
       </c>
       <c r="G46">
-        <v>581.7613436930498</v>
+        <v>701.7692078230049</v>
       </c>
       <c r="H46">
-        <v>1522.414554832051</v>
+        <v>2071.97464795779</v>
       </c>
       <c r="I46">
-        <v>856.4940332306414</v>
+        <v>525.1148605129913</v>
       </c>
       <c r="J46">
-        <v>-115.5840173963527</v>
+        <v>-158.1359344245598</v>
       </c>
       <c r="K46">
-        <v>-976.7781929136833</v>
+        <v>-1253.532552229456</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>48.70232904501901</v>
+        <v>45.25273868625066</v>
       </c>
       <c r="G47">
-        <v>600.5617416576762</v>
+        <v>724.447820847789</v>
       </c>
       <c r="H47">
-        <v>1528.731621697008</v>
+        <v>2080.572045001915</v>
       </c>
       <c r="I47">
-        <v>948.4185467683322</v>
+        <v>581.4736046854335</v>
       </c>
       <c r="J47">
-        <v>-155.5594970575886</v>
+        <v>-212.8282696859488</v>
       </c>
       <c r="K47">
-        <v>-1344.480592247885</v>
+        <v>-1725.417500564936</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>48.07409160558574</v>
+        <v>44.66899936131377</v>
       </c>
       <c r="G48">
-        <v>619.3621396223025</v>
+        <v>747.1264338725731</v>
       </c>
       <c r="H48">
-        <v>1534.884847979032</v>
+        <v>2088.946458409245</v>
       </c>
       <c r="I48">
-        <v>1042.606616882886</v>
+        <v>639.2201310840281</v>
       </c>
       <c r="J48">
-        <v>-195.5349767188243</v>
+        <v>-267.5206049473372</v>
       </c>
       <c r="K48">
-        <v>-1727.538675802076</v>
+        <v>-2217.008918773677</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>47.46955035841889</v>
+        <v>44.10727782520791</v>
       </c>
       <c r="G49">
-        <v>638.162537586929</v>
+        <v>769.8050468973573</v>
       </c>
       <c r="H49">
-        <v>1540.882518063081</v>
+        <v>2097.109163055966</v>
       </c>
       <c r="I49">
-        <v>1139.113981572577</v>
+        <v>698.3886125693585</v>
       </c>
       <c r="J49">
-        <v>-235.5104563800602</v>
+        <v>-322.2129402087263</v>
       </c>
       <c r="K49">
-        <v>-2125.95244357626</v>
+        <v>-2728.306806855685</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>46.88725244992894</v>
+        <v>43.56622413009431</v>
       </c>
       <c r="G50">
-        <v>656.9629355515555</v>
+        <v>792.4836599221414</v>
       </c>
       <c r="H50">
-        <v>1546.732303463149</v>
+        <v>2105.070599713587</v>
       </c>
       <c r="I50">
-        <v>1237.997751332603</v>
+        <v>759.0140634772599</v>
       </c>
       <c r="J50">
-        <v>-275.4859360412962</v>
+        <v>-376.9052754701152</v>
       </c>
       <c r="K50">
-        <v>-2539.721895570436</v>
+        <v>-3259.311164810959</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>46.3258667290219</v>
+        <v>43.04460141043104</v>
       </c>
       <c r="G51">
-        <v>675.7633335161818</v>
+        <v>815.1622729469256</v>
       </c>
       <c r="H51">
-        <v>1552.441321823059</v>
+        <v>2112.840455347793</v>
       </c>
       <c r="I51">
-        <v>1339.316442951569</v>
+        <v>821.1323603393763</v>
       </c>
       <c r="J51">
-        <v>-315.4614157025322</v>
+        <v>-431.5976107315042</v>
       </c>
       <c r="K51">
-        <v>-2968.847031784603</v>
+        <v>-3810.021992639497</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>45.78417094793655</v>
+        <v>42.54127399037602</v>
       </c>
       <c r="G52">
-        <v>694.5637314808083</v>
+        <v>837.8408859717098</v>
       </c>
       <c r="H52">
-        <v>1558.016188983828</v>
+        <v>2120.427733981056</v>
       </c>
       <c r="I52">
-        <v>1443.130014140167</v>
+        <v>884.7802631139377</v>
       </c>
       <c r="J52">
-        <v>-355.4368953637681</v>
+        <v>-486.2899459928932</v>
       </c>
       <c r="K52">
-        <v>-3413.32785221876</v>
+        <v>-4380.439290341297</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>45.26104057044961</v>
+        <v>42.0551969847081</v>
       </c>
       <c r="G53">
-        <v>713.3641294454347</v>
+        <v>860.5194989964939</v>
       </c>
       <c r="H53">
-        <v>1563.46306507292</v>
+        <v>2127.840819419149</v>
       </c>
       <c r="I53">
-        <v>1549.499899012547</v>
+        <v>949.9954369393243</v>
       </c>
       <c r="J53">
-        <v>-395.4123750250038</v>
+        <v>-540.9822812542817</v>
       </c>
       <c r="K53">
-        <v>-3873.164356872906</v>
+        <v>-4970.563057916359</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>44.75543895424818</v>
+        <v>41.58540717658291</v>
       </c>
       <c r="G54">
-        <v>732.1645274100611</v>
+        <v>883.1981120212779</v>
       </c>
       <c r="H54">
-        <v>1568.787695420596</v>
+        <v>2135.087530937451</v>
       </c>
       <c r="I54">
-        <v>1658.489044441411</v>
+        <v>1016.816474423303</v>
       </c>
       <c r="J54">
-        <v>-435.3878546862397</v>
+        <v>-595.6746165156707</v>
       </c>
       <c r="K54">
-        <v>-4348.356545747046</v>
+        <v>-5580.39329536469</v>
       </c>
     </row>
   </sheetData>
